--- a/data/PW009.xlsx
+++ b/data/PW009.xlsx
@@ -34,21 +34,21 @@
     <t>Time</t>
   </si>
   <si>
+    <t>cname</t>
+  </si>
+  <si>
+    <t>cnum</t>
+  </si>
+  <si>
+    <t>exdate</t>
+  </si>
+  <si>
+    <t>cvv</t>
+  </si>
+  <si>
     <t>Month</t>
   </si>
   <si>
-    <t>cname</t>
-  </si>
-  <si>
-    <t>cnum</t>
-  </si>
-  <si>
-    <t>exdate</t>
-  </si>
-  <si>
-    <t>cvv</t>
-  </si>
-  <si>
     <t>email</t>
   </si>
   <si>
@@ -70,7 +70,7 @@
     <t>2</t>
   </si>
   <si>
-    <t>01/30/2017</t>
+    <t>03/03/2017</t>
   </si>
   <si>
     <t>12:00 PM</t>
@@ -221,12 +221,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -321,8 +321,8 @@
   </sheetPr>
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O11" activeCellId="0" sqref="O11"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -331,10 +331,10 @@
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.85204081632653"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.45918367346939"/>
     <col collapsed="false" hidden="false" max="7" min="4" style="0" width="10.9948979591837"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.72959183673469"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="36.25"/>
-    <col collapsed="false" hidden="false" max="12" min="11" style="0" width="8.72959183673469"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.72959183673469"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="36.25"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="8.72959183673469"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="12.6887755102041"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="35.1173469387755"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="14.9489795918367"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="21.015306122449"/>
@@ -363,7 +363,7 @@
       <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -375,7 +375,7 @@
       <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="M1" s="1" t="s">
@@ -410,21 +410,21 @@
       <c r="G2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="5" t="str">
-        <f aca="false">TEXT(F2,"mmmm dd")</f>
-        <v>January 30</v>
-      </c>
-      <c r="I2" s="0" t="s">
+      <c r="H2" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="I2" s="5" t="s">
         <v>20</v>
       </c>
+      <c r="J2" s="0" t="s">
+        <v>21</v>
+      </c>
       <c r="K2" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" s="0" t="s">
         <v>22</v>
+      </c>
+      <c r="L2" s="6" t="str">
+        <f aca="false">TEXT(F2,"mmmm d")</f>
+        <v>March 3</v>
       </c>
       <c r="M2" s="7" t="s">
         <v>13</v>
